--- a/docentes/León González Ruth Itzel - Estadisticos 20242.xlsx
+++ b/docentes/León González Ruth Itzel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Mat</t>
   </si>
@@ -79,19 +79,46 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>BAUTISTA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
     <t>TEXOCO</t>
   </si>
   <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>JOY JARA</t>
+  </si>
+  <si>
     <t>EDER</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
   </si>
   <si>
     <t>DANIEL</t>
@@ -510,7 +537,7 @@
         <v>89.19</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -618,16 +645,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>86.48999999999999</v>
+      </c>
+      <c r="H2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -641,16 +671,19 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>89.47</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -664,16 +697,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>89.29000000000001</v>
+      </c>
+      <c r="H4">
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -732,16 +768,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>89.19</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -758,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>94.73999999999999</v>
+        <v>89.47</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -784,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>92.86</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +839,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -838,47 +874,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920006</v>
+        <v>23330051920225</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920003</v>
+        <v>24330051920353</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>22330051920006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>22330051920010</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>22330051920003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
     </row>
